--- a/evaluation/results/anogan/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/anogan/split_3/test_50_50/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.9629629629629629</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.500683836215966</v>
       </c>
       <c r="I2">
         <v>534</v>
